--- a/models/classification_models_metrics.xlsx
+++ b/models/classification_models_metrics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,68 @@
         <v>0.5479453590455384</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5949599465954606</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5416560980135188</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5949599465954606</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5457186484909325</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4050400534045394</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.972586098896736</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5029389521611491</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5797174009790832</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5351378178425146</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5797174009790832</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5435588035343082</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4202825990209168</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7260962108894713</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4979390002818844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
